--- a/data/pca/factorExposure/factorExposure_2011-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01311530550102098</v>
+        <v>0.01304227005358034</v>
       </c>
       <c r="C2">
-        <v>0.0324791827390813</v>
+        <v>0.02331282806065954</v>
       </c>
       <c r="D2">
-        <v>0.01849420806999847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02463858655104432</v>
+      </c>
+      <c r="E2">
+        <v>0.01194755490092443</v>
+      </c>
+      <c r="F2">
+        <v>0.02965979081537874</v>
+      </c>
+      <c r="G2">
+        <v>0.001245142003720299</v>
+      </c>
+      <c r="H2">
+        <v>0.02404785167184719</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07589660133597534</v>
+        <v>0.0891565798473849</v>
       </c>
       <c r="C4">
-        <v>0.0550462124283135</v>
+        <v>0.03169999853059497</v>
       </c>
       <c r="D4">
-        <v>0.07561090156251771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07179896969112128</v>
+      </c>
+      <c r="E4">
+        <v>0.01014934628987629</v>
+      </c>
+      <c r="F4">
+        <v>0.0393885749963542</v>
+      </c>
+      <c r="G4">
+        <v>0.01191371060906224</v>
+      </c>
+      <c r="H4">
+        <v>-0.03823733624851112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1106875683174545</v>
+        <v>0.1246557008478114</v>
       </c>
       <c r="C6">
-        <v>0.05640201279336985</v>
+        <v>0.04084967917400306</v>
       </c>
       <c r="D6">
-        <v>0.005577652499627583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01424778605372349</v>
+      </c>
+      <c r="E6">
+        <v>-0.02856200191114662</v>
+      </c>
+      <c r="F6">
+        <v>0.04838430322899741</v>
+      </c>
+      <c r="G6">
+        <v>0.007898784419371951</v>
+      </c>
+      <c r="H6">
+        <v>0.1060060725941247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05485656745677139</v>
+        <v>0.06441131005255488</v>
       </c>
       <c r="C7">
-        <v>0.03365241052808469</v>
+        <v>0.01391116975375756</v>
       </c>
       <c r="D7">
-        <v>0.03103755975952577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05151644080830046</v>
+      </c>
+      <c r="E7">
+        <v>0.03350755139093548</v>
+      </c>
+      <c r="F7">
+        <v>0.04214923422618098</v>
+      </c>
+      <c r="G7">
+        <v>-0.02498305975339171</v>
+      </c>
+      <c r="H7">
+        <v>-0.01724754291767377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03940419979771795</v>
+        <v>0.04285028198054354</v>
       </c>
       <c r="C8">
-        <v>0.01043200989762</v>
+        <v>0.005037207724588799</v>
       </c>
       <c r="D8">
-        <v>0.06477886863461704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02554632177737215</v>
+      </c>
+      <c r="E8">
+        <v>0.01240248844946104</v>
+      </c>
+      <c r="F8">
+        <v>0.06773776950295447</v>
+      </c>
+      <c r="G8">
+        <v>0.07446917121651622</v>
+      </c>
+      <c r="H8">
+        <v>0.02915405810309308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.07053730059527313</v>
+        <v>0.08021404534335508</v>
       </c>
       <c r="C9">
-        <v>0.03939446952257758</v>
+        <v>0.01814059879050861</v>
       </c>
       <c r="D9">
-        <v>0.07118668386433731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06502735447257678</v>
+      </c>
+      <c r="E9">
+        <v>0.02319319323572446</v>
+      </c>
+      <c r="F9">
+        <v>0.03378705733068049</v>
+      </c>
+      <c r="G9">
+        <v>0.02631743232089596</v>
+      </c>
+      <c r="H9">
+        <v>-0.03966269184735741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02703795880877194</v>
+        <v>0.04594191823594339</v>
       </c>
       <c r="C10">
-        <v>0.02446180186648429</v>
+        <v>0.07478542853664377</v>
       </c>
       <c r="D10">
-        <v>-0.1707582570785031</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1712610130670538</v>
+      </c>
+      <c r="E10">
+        <v>0.04093161257720796</v>
+      </c>
+      <c r="F10">
+        <v>0.04817129787533852</v>
+      </c>
+      <c r="G10">
+        <v>-0.03567827083875291</v>
+      </c>
+      <c r="H10">
+        <v>0.05084341684685348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07150446172144993</v>
+        <v>0.07572181576299013</v>
       </c>
       <c r="C11">
-        <v>0.04428019343528166</v>
+        <v>0.01575030785852701</v>
       </c>
       <c r="D11">
-        <v>0.04938089443447173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06514649008779662</v>
+      </c>
+      <c r="E11">
+        <v>-0.0004551695699786432</v>
+      </c>
+      <c r="F11">
+        <v>0.03407591457896368</v>
+      </c>
+      <c r="G11">
+        <v>0.05135533019715646</v>
+      </c>
+      <c r="H11">
+        <v>-0.05777097081404311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06086680875197099</v>
+        <v>0.06944168453015338</v>
       </c>
       <c r="C12">
-        <v>0.05280071012464082</v>
+        <v>0.02844882743403836</v>
       </c>
       <c r="D12">
-        <v>0.04386351473136207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05390541433513873</v>
+      </c>
+      <c r="E12">
+        <v>0.01179390155867535</v>
+      </c>
+      <c r="F12">
+        <v>0.02273360053267262</v>
+      </c>
+      <c r="G12">
+        <v>0.02709847292583073</v>
+      </c>
+      <c r="H12">
+        <v>-0.02665980050883498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06784121084358191</v>
+        <v>0.06928265866788225</v>
       </c>
       <c r="C13">
-        <v>0.04087687964489475</v>
+        <v>0.01905291436604958</v>
       </c>
       <c r="D13">
-        <v>0.04411849586008394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0418170816714026</v>
+      </c>
+      <c r="E13">
+        <v>0.004884133387841114</v>
+      </c>
+      <c r="F13">
+        <v>0.02403668463005532</v>
+      </c>
+      <c r="G13">
+        <v>0.02495238490776865</v>
+      </c>
+      <c r="H13">
+        <v>-0.05032058206513554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03234861090027248</v>
+        <v>0.04065733987862823</v>
       </c>
       <c r="C14">
-        <v>0.03225567281479279</v>
+        <v>0.02656337384858628</v>
       </c>
       <c r="D14">
-        <v>-0.007178609139517937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01536296300905642</v>
+      </c>
+      <c r="E14">
+        <v>0.0257361240541788</v>
+      </c>
+      <c r="F14">
+        <v>0.01443258061501452</v>
+      </c>
+      <c r="G14">
+        <v>0.01955670125757938</v>
+      </c>
+      <c r="H14">
+        <v>-0.05937502301927478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04106709995558708</v>
+        <v>0.04031346892335182</v>
       </c>
       <c r="C15">
-        <v>0.01081813870821485</v>
+        <v>0.00270402525339342</v>
       </c>
       <c r="D15">
-        <v>0.02332229770664019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.009839147772452589</v>
+      </c>
+      <c r="E15">
+        <v>0.03468756209615662</v>
+      </c>
+      <c r="F15">
+        <v>0.003289661277790993</v>
+      </c>
+      <c r="G15">
+        <v>0.03083172529771251</v>
+      </c>
+      <c r="H15">
+        <v>-0.02781056183925579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.059537344201501</v>
+        <v>0.0707395306185505</v>
       </c>
       <c r="C16">
-        <v>0.04186171628089804</v>
+        <v>0.01847705698000515</v>
       </c>
       <c r="D16">
-        <v>0.05218570276390291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06570519862209195</v>
+      </c>
+      <c r="E16">
+        <v>0.004892933791515433</v>
+      </c>
+      <c r="F16">
+        <v>0.03001218539500369</v>
+      </c>
+      <c r="G16">
+        <v>0.02432088414732629</v>
+      </c>
+      <c r="H16">
+        <v>-0.04626308423074329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06464207449139786</v>
+        <v>0.06322549247596364</v>
       </c>
       <c r="C20">
-        <v>0.02569450050946193</v>
+        <v>0.003384643680843391</v>
       </c>
       <c r="D20">
-        <v>0.04483309474126561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03945464800409049</v>
+      </c>
+      <c r="E20">
+        <v>0.00547675111360867</v>
+      </c>
+      <c r="F20">
+        <v>0.02681503483508101</v>
+      </c>
+      <c r="G20">
+        <v>0.01622841206533814</v>
+      </c>
+      <c r="H20">
+        <v>-0.04015024471006876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.03185577778035282</v>
+        <v>0.02885193796192959</v>
       </c>
       <c r="C21">
-        <v>0.005576315395095558</v>
+        <v>-0.006287268642413762</v>
       </c>
       <c r="D21">
-        <v>0.01634708288594706</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01991605654222676</v>
+      </c>
+      <c r="E21">
+        <v>0.03987808595990004</v>
+      </c>
+      <c r="F21">
+        <v>-0.01435277334714928</v>
+      </c>
+      <c r="G21">
+        <v>0.00411127147075347</v>
+      </c>
+      <c r="H21">
+        <v>0.04530881438335612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07956501596222122</v>
+        <v>0.07077598114295795</v>
       </c>
       <c r="C22">
-        <v>0.06256443881898814</v>
+        <v>0.02035231061510869</v>
       </c>
       <c r="D22">
-        <v>0.1552299293778103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1138650792901035</v>
+      </c>
+      <c r="E22">
+        <v>0.6093250569298142</v>
+      </c>
+      <c r="F22">
+        <v>-0.06073624199590677</v>
+      </c>
+      <c r="G22">
+        <v>-0.1725939486331367</v>
+      </c>
+      <c r="H22">
+        <v>0.1234425689878986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08060438623754608</v>
+        <v>0.07169296517255232</v>
       </c>
       <c r="C23">
-        <v>0.06100921203050449</v>
+        <v>0.01873845845370976</v>
       </c>
       <c r="D23">
-        <v>0.1564352283127441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1147426021833579</v>
+      </c>
+      <c r="E23">
+        <v>0.6114180492632646</v>
+      </c>
+      <c r="F23">
+        <v>-0.06008572686331128</v>
+      </c>
+      <c r="G23">
+        <v>-0.1668758432424083</v>
+      </c>
+      <c r="H23">
+        <v>0.1190341200490909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07817188965539</v>
+        <v>0.08126470542887754</v>
       </c>
       <c r="C24">
-        <v>0.05353368871452861</v>
+        <v>0.02339357629550992</v>
       </c>
       <c r="D24">
-        <v>0.0547628672074341</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06387327100239856</v>
+      </c>
+      <c r="E24">
+        <v>0.01273627948912227</v>
+      </c>
+      <c r="F24">
+        <v>0.03765934609984325</v>
+      </c>
+      <c r="G24">
+        <v>0.03923930872906266</v>
+      </c>
+      <c r="H24">
+        <v>-0.02706236363341654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07535805470326787</v>
+        <v>0.07935212290256718</v>
       </c>
       <c r="C25">
-        <v>0.05372871136529381</v>
+        <v>0.02636559817957517</v>
       </c>
       <c r="D25">
-        <v>0.05981159294876779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05715860097162462</v>
+      </c>
+      <c r="E25">
+        <v>0.01429681720263414</v>
+      </c>
+      <c r="F25">
+        <v>0.03213979215784234</v>
+      </c>
+      <c r="G25">
+        <v>0.04791052637097833</v>
+      </c>
+      <c r="H25">
+        <v>-0.03473488405301728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04652203647406254</v>
+        <v>0.04567015236945447</v>
       </c>
       <c r="C26">
-        <v>0.01591244391673851</v>
+        <v>0.001725897391874814</v>
       </c>
       <c r="D26">
-        <v>0.008589501723732337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02247403860070664</v>
+      </c>
+      <c r="E26">
+        <v>0.04049404064250764</v>
+      </c>
+      <c r="F26">
+        <v>0.03128976471992167</v>
+      </c>
+      <c r="G26">
+        <v>0.01765110433965539</v>
+      </c>
+      <c r="H26">
+        <v>-0.0485614652974438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04425515211870376</v>
+        <v>0.07052494881355738</v>
       </c>
       <c r="C28">
-        <v>0.06845997836376234</v>
+        <v>0.1430914352805334</v>
       </c>
       <c r="D28">
-        <v>-0.3066968648307951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2883149148047709</v>
+      </c>
+      <c r="E28">
+        <v>0.04006322590649</v>
+      </c>
+      <c r="F28">
+        <v>0.05371177350899715</v>
+      </c>
+      <c r="G28">
+        <v>0.02088082878951672</v>
+      </c>
+      <c r="H28">
+        <v>0.04948757349763457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04431942519277622</v>
+        <v>0.04722760586102818</v>
       </c>
       <c r="C29">
-        <v>0.03515662705366252</v>
+        <v>0.02452601566393968</v>
       </c>
       <c r="D29">
-        <v>0.00604899237478309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01730057235740583</v>
+      </c>
+      <c r="E29">
+        <v>0.05491041433503673</v>
+      </c>
+      <c r="F29">
+        <v>0.01350808238699176</v>
+      </c>
+      <c r="G29">
+        <v>0.01165659513550634</v>
+      </c>
+      <c r="H29">
+        <v>-0.07702626867247529</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1295822583459009</v>
+        <v>0.127046651035026</v>
       </c>
       <c r="C30">
-        <v>0.09125833453140038</v>
+        <v>0.04791149237616312</v>
       </c>
       <c r="D30">
-        <v>0.1133680467655257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08677841493224794</v>
+      </c>
+      <c r="E30">
+        <v>0.05670700580240588</v>
+      </c>
+      <c r="F30">
+        <v>0.01654177636807765</v>
+      </c>
+      <c r="G30">
+        <v>0.06060670761676381</v>
+      </c>
+      <c r="H30">
+        <v>0.05386388774836697</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04909078535997997</v>
+        <v>0.04992071666371498</v>
       </c>
       <c r="C31">
-        <v>0.026278073052505</v>
+        <v>0.008903835651467863</v>
       </c>
       <c r="D31">
-        <v>0.02008999780652304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03516813356929019</v>
+      </c>
+      <c r="E31">
+        <v>0.02277459372810936</v>
+      </c>
+      <c r="F31">
+        <v>0.009204948307309512</v>
+      </c>
+      <c r="G31">
+        <v>0.001781674203000605</v>
+      </c>
+      <c r="H31">
+        <v>-0.07017113143496295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0342505716049873</v>
+        <v>0.03767255256136132</v>
       </c>
       <c r="C32">
-        <v>0.02172181245994607</v>
+        <v>0.0190578274210106</v>
       </c>
       <c r="D32">
-        <v>0.0324942479557558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01376393048734083</v>
+      </c>
+      <c r="E32">
+        <v>0.04620998976797849</v>
+      </c>
+      <c r="F32">
+        <v>-0.002197874586808696</v>
+      </c>
+      <c r="G32">
+        <v>0.05167659955257818</v>
+      </c>
+      <c r="H32">
+        <v>-0.01220880725357806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08681539693972153</v>
+        <v>0.09501707875404365</v>
       </c>
       <c r="C33">
-        <v>0.04533757064728375</v>
+        <v>0.01904891595167734</v>
       </c>
       <c r="D33">
-        <v>0.04595062774943454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05083549384468693</v>
+      </c>
+      <c r="E33">
+        <v>0.01318172513867678</v>
+      </c>
+      <c r="F33">
+        <v>0.001153794122360952</v>
+      </c>
+      <c r="G33">
+        <v>0.01051873428929054</v>
+      </c>
+      <c r="H33">
+        <v>-0.06193762126248554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.06010445728494229</v>
+        <v>0.06541272527066497</v>
       </c>
       <c r="C34">
-        <v>0.02637357740248728</v>
+        <v>0.004393443561962447</v>
       </c>
       <c r="D34">
-        <v>0.04837980008415951</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05013329376898611</v>
+      </c>
+      <c r="E34">
+        <v>0.006460109263009396</v>
+      </c>
+      <c r="F34">
+        <v>0.02105798675841865</v>
+      </c>
+      <c r="G34">
+        <v>0.03388435811807906</v>
+      </c>
+      <c r="H34">
+        <v>-0.04359964834736745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03654581789322032</v>
+        <v>0.03839644285662745</v>
       </c>
       <c r="C35">
-        <v>0.01316372842168662</v>
+        <v>0.005285621116749049</v>
       </c>
       <c r="D35">
-        <v>0.02209798476798389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01745531894121867</v>
+      </c>
+      <c r="E35">
+        <v>0.02350537190852695</v>
+      </c>
+      <c r="F35">
+        <v>-0.01585609525852085</v>
+      </c>
+      <c r="G35">
+        <v>-0.004058519463629222</v>
+      </c>
+      <c r="H35">
+        <v>-0.03461125951673804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02640503762590882</v>
+        <v>0.02883290888373806</v>
       </c>
       <c r="C36">
-        <v>0.01999570287484033</v>
+        <v>0.01125141390931848</v>
       </c>
       <c r="D36">
-        <v>0.0185180109989669</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02143816017567684</v>
+      </c>
+      <c r="E36">
+        <v>0.03076674822407733</v>
+      </c>
+      <c r="F36">
+        <v>0.02834314258842514</v>
+      </c>
+      <c r="G36">
+        <v>0.01020568760313391</v>
+      </c>
+      <c r="H36">
+        <v>-0.04575363895042608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04757351635922837</v>
+        <v>0.04647169886934639</v>
       </c>
       <c r="C38">
-        <v>0.004033746486720073</v>
+        <v>-0.008570116378505407</v>
       </c>
       <c r="D38">
-        <v>0.01124971419623122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02023899649768106</v>
+      </c>
+      <c r="E38">
+        <v>0.04893712070561155</v>
+      </c>
+      <c r="F38">
+        <v>-0.002159731762347756</v>
+      </c>
+      <c r="G38">
+        <v>0.004413946894551915</v>
+      </c>
+      <c r="H38">
+        <v>-0.01973509129628839</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0918564276165619</v>
+        <v>0.1010196875880553</v>
       </c>
       <c r="C39">
-        <v>0.06632773184731842</v>
+        <v>0.03673335918915102</v>
       </c>
       <c r="D39">
-        <v>0.04981589953932549</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06598646072970006</v>
+      </c>
+      <c r="E39">
+        <v>0.003188226846329874</v>
+      </c>
+      <c r="F39">
+        <v>-0.0005890685586441578</v>
+      </c>
+      <c r="G39">
+        <v>0.05216109796850295</v>
+      </c>
+      <c r="H39">
+        <v>-0.005142422918556966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.08194181726200568</v>
+        <v>0.06304784525956156</v>
       </c>
       <c r="C40">
-        <v>0.03785856289298924</v>
+        <v>0.0005686563226915883</v>
       </c>
       <c r="D40">
-        <v>0.0131995630829639</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03527595420556426</v>
+      </c>
+      <c r="E40">
+        <v>0.03542633527962916</v>
+      </c>
+      <c r="F40">
+        <v>-0.03581241841584894</v>
+      </c>
+      <c r="G40">
+        <v>0.05623166950774913</v>
+      </c>
+      <c r="H40">
+        <v>0.09951987757939576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04608258184299899</v>
+        <v>0.04681184918134953</v>
       </c>
       <c r="C41">
-        <v>0.01430824247964308</v>
+        <v>-0.002787459714113355</v>
       </c>
       <c r="D41">
-        <v>0.03832928821425898</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03457510800505792</v>
+      </c>
+      <c r="E41">
+        <v>0.001090438073153488</v>
+      </c>
+      <c r="F41">
+        <v>-0.01380368794306895</v>
+      </c>
+      <c r="G41">
+        <v>0.009404574146159741</v>
+      </c>
+      <c r="H41">
+        <v>-0.02906435483547477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05469893693439255</v>
+        <v>0.06018140359700524</v>
       </c>
       <c r="C43">
-        <v>0.02693463816575749</v>
+        <v>0.01107385218781509</v>
       </c>
       <c r="D43">
-        <v>0.01129166669454771</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0325536195510603</v>
+      </c>
+      <c r="E43">
+        <v>0.0182383563782211</v>
+      </c>
+      <c r="F43">
+        <v>0.0130201423036429</v>
+      </c>
+      <c r="G43">
+        <v>-0.01057550821417914</v>
+      </c>
+      <c r="H43">
+        <v>-0.06724640248720863</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.1001978773130175</v>
+        <v>0.09317822894877718</v>
       </c>
       <c r="C44">
-        <v>0.03122917724228778</v>
+        <v>-0.0007990271094930068</v>
       </c>
       <c r="D44">
-        <v>0.05100749914836483</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05202824734360335</v>
+      </c>
+      <c r="E44">
+        <v>0.0714792348000156</v>
+      </c>
+      <c r="F44">
+        <v>0.07580401942309296</v>
+      </c>
+      <c r="G44">
+        <v>0.0683010066092094</v>
+      </c>
+      <c r="H44">
+        <v>-0.02465353535992051</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02638453448869558</v>
+        <v>0.03580364179933888</v>
       </c>
       <c r="C46">
-        <v>0.0227794918271703</v>
+        <v>0.01294986310897598</v>
       </c>
       <c r="D46">
-        <v>0.03564435021629152</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04092441734326251</v>
+      </c>
+      <c r="E46">
+        <v>0.02965982111568796</v>
+      </c>
+      <c r="F46">
+        <v>0.01579115637451129</v>
+      </c>
+      <c r="G46">
+        <v>0.0008264038984476657</v>
+      </c>
+      <c r="H46">
+        <v>-0.0346058182502325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03300116478325078</v>
+        <v>0.04084634365734664</v>
       </c>
       <c r="C47">
-        <v>0.02468328988297471</v>
+        <v>0.01909354103042615</v>
       </c>
       <c r="D47">
-        <v>0.00153044888042848</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01127359528473085</v>
+      </c>
+      <c r="E47">
+        <v>0.04053566524679588</v>
+      </c>
+      <c r="F47">
+        <v>-0.008796131983122887</v>
+      </c>
+      <c r="G47">
+        <v>-0.02796342835156486</v>
+      </c>
+      <c r="H47">
+        <v>-0.03209036999349028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03709395781770486</v>
+        <v>0.04099774793524542</v>
       </c>
       <c r="C48">
-        <v>0.02618325652587429</v>
+        <v>0.01480129643887353</v>
       </c>
       <c r="D48">
-        <v>0.02924626737090601</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02160313721287663</v>
+      </c>
+      <c r="E48">
+        <v>0.03810859761086968</v>
+      </c>
+      <c r="F48">
+        <v>0.01186220441492857</v>
+      </c>
+      <c r="G48">
+        <v>0.02269974401492467</v>
+      </c>
+      <c r="H48">
+        <v>-0.02630525300525529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1652306649114782</v>
+        <v>0.2002259624243778</v>
       </c>
       <c r="C49">
-        <v>0.0534201697596097</v>
+        <v>0.03334574849647215</v>
       </c>
       <c r="D49">
-        <v>-0.0001764300215482536</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02960978736551232</v>
+      </c>
+      <c r="E49">
+        <v>-0.1660603588234605</v>
+      </c>
+      <c r="F49">
+        <v>0.04229271239104804</v>
+      </c>
+      <c r="G49">
+        <v>-0.1605813607421124</v>
+      </c>
+      <c r="H49">
+        <v>0.2121367959384494</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0433062659755336</v>
+        <v>0.04567634681950442</v>
       </c>
       <c r="C50">
-        <v>0.02394003759028903</v>
+        <v>0.008344607216369442</v>
       </c>
       <c r="D50">
-        <v>0.03858598963335017</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04048553405505253</v>
+      </c>
+      <c r="E50">
+        <v>0.03152473853576639</v>
+      </c>
+      <c r="F50">
+        <v>0.004510200552499673</v>
+      </c>
+      <c r="G50">
+        <v>0.00217829677129282</v>
+      </c>
+      <c r="H50">
+        <v>-0.08105084851863034</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02743119257632395</v>
+        <v>0.0349015412225239</v>
       </c>
       <c r="C51">
-        <v>0.01122035036736258</v>
+        <v>0.008653243711510761</v>
       </c>
       <c r="D51">
-        <v>-0.00372485849217599</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.003807223666737825</v>
+      </c>
+      <c r="E51">
+        <v>0.01271857531174213</v>
+      </c>
+      <c r="F51">
+        <v>0.009580648846593869</v>
+      </c>
+      <c r="G51">
+        <v>-0.017470743004253</v>
+      </c>
+      <c r="H51">
+        <v>0.02514102425099082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1540936375665205</v>
+        <v>0.1609608364193061</v>
       </c>
       <c r="C53">
-        <v>0.07644495774602841</v>
+        <v>0.04522313765045379</v>
       </c>
       <c r="D53">
-        <v>-0.004254289929607505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02972365661308137</v>
+      </c>
+      <c r="E53">
+        <v>-0.03138094719666814</v>
+      </c>
+      <c r="F53">
+        <v>0.0004436296130017815</v>
+      </c>
+      <c r="G53">
+        <v>0.01955790598337622</v>
+      </c>
+      <c r="H53">
+        <v>-0.2045493392597569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05867249009928382</v>
+        <v>0.0578785778661761</v>
       </c>
       <c r="C54">
-        <v>0.02767372463915505</v>
+        <v>0.01382033402073517</v>
       </c>
       <c r="D54">
-        <v>0.01986780039229352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01770464049169319</v>
+      </c>
+      <c r="E54">
+        <v>0.05251835879137154</v>
+      </c>
+      <c r="F54">
+        <v>0.01582800606697491</v>
+      </c>
+      <c r="G54">
+        <v>0.05853242851177345</v>
+      </c>
+      <c r="H54">
+        <v>-0.03644840265018709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.103461713920707</v>
+        <v>0.103599489647285</v>
       </c>
       <c r="C55">
-        <v>0.05399748362504551</v>
+        <v>0.0279227643824492</v>
       </c>
       <c r="D55">
-        <v>0.01262366660738706</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03261739009606111</v>
+      </c>
+      <c r="E55">
+        <v>-9.9236889007009e-05</v>
+      </c>
+      <c r="F55">
+        <v>0.015941683265521</v>
+      </c>
+      <c r="G55">
+        <v>0.02998762117051015</v>
+      </c>
+      <c r="H55">
+        <v>-0.1569324212528727</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1490921253295795</v>
+        <v>0.1560571537196998</v>
       </c>
       <c r="C56">
-        <v>0.08128612892728018</v>
+        <v>0.04413733596634144</v>
       </c>
       <c r="D56">
-        <v>0.001141177697605956</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04744424102944621</v>
+      </c>
+      <c r="E56">
+        <v>-0.01458652058537877</v>
+      </c>
+      <c r="F56">
+        <v>0.02266431299725871</v>
+      </c>
+      <c r="G56">
+        <v>0.02963388559352976</v>
+      </c>
+      <c r="H56">
+        <v>-0.2106527893759486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1311200826576276</v>
+        <v>0.09896030571621424</v>
       </c>
       <c r="C58">
-        <v>-0.01946994184308212</v>
+        <v>-0.06434113550075525</v>
       </c>
       <c r="D58">
-        <v>0.04947911217285764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02153406589527426</v>
+      </c>
+      <c r="E58">
+        <v>0.1249551296148029</v>
+      </c>
+      <c r="F58">
+        <v>0.02864398007506214</v>
+      </c>
+      <c r="G58">
+        <v>-0.08035676156223609</v>
+      </c>
+      <c r="H58">
+        <v>0.2052902318954623</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1188613939882574</v>
+        <v>0.1461697745918559</v>
       </c>
       <c r="C59">
-        <v>0.07628786224445325</v>
+        <v>0.1498545576285447</v>
       </c>
       <c r="D59">
-        <v>-0.3995435991819242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3404616249875966</v>
+      </c>
+      <c r="E59">
+        <v>0.0375847349151062</v>
+      </c>
+      <c r="F59">
+        <v>0.00139924128442851</v>
+      </c>
+      <c r="G59">
+        <v>0.005733134988948146</v>
+      </c>
+      <c r="H59">
+        <v>-0.00649053531371147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2095576513243564</v>
+        <v>0.2390405146811301</v>
       </c>
       <c r="C60">
-        <v>0.09657827544585719</v>
+        <v>0.05805908099682645</v>
       </c>
       <c r="D60">
-        <v>0.009555895629213012</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05268426467708687</v>
+      </c>
+      <c r="E60">
+        <v>-0.113688243191535</v>
+      </c>
+      <c r="F60">
+        <v>0.04796163920025182</v>
+      </c>
+      <c r="G60">
+        <v>-0.04257856203085544</v>
+      </c>
+      <c r="H60">
+        <v>0.1333217734775567</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07984723422230031</v>
+        <v>0.08562707693051573</v>
       </c>
       <c r="C61">
-        <v>0.04467650740712473</v>
+        <v>0.02239269301831057</v>
       </c>
       <c r="D61">
-        <v>0.03262400132701043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04506639997897254</v>
+      </c>
+      <c r="E61">
+        <v>0.008416320901813653</v>
+      </c>
+      <c r="F61">
+        <v>0.01012957900242462</v>
+      </c>
+      <c r="G61">
+        <v>0.03842323886820345</v>
+      </c>
+      <c r="H61">
+        <v>-0.05398250592549217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1335417124702275</v>
+        <v>0.1373935865692422</v>
       </c>
       <c r="C62">
-        <v>0.05582116784031243</v>
+        <v>0.02058083642467936</v>
       </c>
       <c r="D62">
-        <v>-0.001828217621746509</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04533181006183597</v>
+      </c>
+      <c r="E62">
+        <v>-0.04637114053289916</v>
+      </c>
+      <c r="F62">
+        <v>-0.01511562071760598</v>
+      </c>
+      <c r="G62">
+        <v>0.05414413729794348</v>
+      </c>
+      <c r="H62">
+        <v>-0.2093483711941383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0518531161842087</v>
+        <v>0.0498640968540882</v>
       </c>
       <c r="C63">
-        <v>0.02491127627660211</v>
+        <v>0.01177087542414802</v>
       </c>
       <c r="D63">
-        <v>0.02724910337268113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02342997185858966</v>
+      </c>
+      <c r="E63">
+        <v>0.04147268694076192</v>
+      </c>
+      <c r="F63">
+        <v>5.703762729272586e-05</v>
+      </c>
+      <c r="G63">
+        <v>0.03244299664092654</v>
+      </c>
+      <c r="H63">
+        <v>-0.03506139653182262</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1072044299215947</v>
+        <v>0.1104346987751644</v>
       </c>
       <c r="C64">
-        <v>0.03736412478297749</v>
+        <v>0.01593050960443606</v>
       </c>
       <c r="D64">
-        <v>0.02099365478334918</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02870827903247079</v>
+      </c>
+      <c r="E64">
+        <v>0.03980608693837886</v>
+      </c>
+      <c r="F64">
+        <v>0.04648802605823395</v>
+      </c>
+      <c r="G64">
+        <v>0.0660579132068333</v>
+      </c>
+      <c r="H64">
+        <v>-0.02149559523513267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.125690837942588</v>
+        <v>0.1300456002872504</v>
       </c>
       <c r="C65">
-        <v>0.05959687255452265</v>
+        <v>0.04129977840250063</v>
       </c>
       <c r="D65">
-        <v>0.01642182029408457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01873868805044914</v>
+      </c>
+      <c r="E65">
+        <v>-0.01004336247305154</v>
+      </c>
+      <c r="F65">
+        <v>0.03559314134598706</v>
+      </c>
+      <c r="G65">
+        <v>0.03098151162732247</v>
+      </c>
+      <c r="H65">
+        <v>0.1265164113937432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1482049391516964</v>
+        <v>0.1503990131455765</v>
       </c>
       <c r="C66">
-        <v>0.07076682094939195</v>
+        <v>0.02263408290708617</v>
       </c>
       <c r="D66">
-        <v>0.09568944231674271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1036141154359737</v>
+      </c>
+      <c r="E66">
+        <v>-0.0255789145963783</v>
+      </c>
+      <c r="F66">
+        <v>0.005462120011922385</v>
+      </c>
+      <c r="G66">
+        <v>0.08057091608614651</v>
+      </c>
+      <c r="H66">
+        <v>-0.06548760782284943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07750132314145107</v>
+        <v>0.08595928341316883</v>
       </c>
       <c r="C67">
-        <v>0.01151749857646457</v>
+        <v>-0.004559705051566749</v>
       </c>
       <c r="D67">
-        <v>0.01775329822091437</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03298478709049966</v>
+      </c>
+      <c r="E67">
+        <v>0.02106320798405024</v>
+      </c>
+      <c r="F67">
+        <v>0.01401952069657636</v>
+      </c>
+      <c r="G67">
+        <v>-0.01117626903057546</v>
+      </c>
+      <c r="H67">
+        <v>-0.0219916881797877</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05278257829699697</v>
+        <v>0.06276084038175148</v>
       </c>
       <c r="C68">
-        <v>0.04853041132563241</v>
+        <v>0.1093998110371017</v>
       </c>
       <c r="D68">
-        <v>-0.2580605846754288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2511323845874169</v>
+      </c>
+      <c r="E68">
+        <v>0.04778053653103158</v>
+      </c>
+      <c r="F68">
+        <v>0.01320931991737894</v>
+      </c>
+      <c r="G68">
+        <v>0.001280640153078379</v>
+      </c>
+      <c r="H68">
+        <v>-0.01894770537447754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05342076993020901</v>
+        <v>0.05205849733900189</v>
       </c>
       <c r="C69">
-        <v>0.01971718025162896</v>
+        <v>0.003563323892004883</v>
       </c>
       <c r="D69">
-        <v>0.02379773633914962</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02072262395085957</v>
+      </c>
+      <c r="E69">
+        <v>0.02410409568481288</v>
+      </c>
+      <c r="F69">
+        <v>-0.01218694300705252</v>
+      </c>
+      <c r="G69">
+        <v>0.001956438247052887</v>
+      </c>
+      <c r="H69">
+        <v>-0.04591111967802446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004163595423582199</v>
+        <v>0.02843273563870787</v>
       </c>
       <c r="C70">
-        <v>-0.005803346487006028</v>
+        <v>-0.001077576670452548</v>
       </c>
       <c r="D70">
-        <v>-0.01212350107174491</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006845478869128998</v>
+      </c>
+      <c r="E70">
+        <v>-0.02456260751068942</v>
+      </c>
+      <c r="F70">
+        <v>-0.007816429463961452</v>
+      </c>
+      <c r="G70">
+        <v>-0.02748949905298563</v>
+      </c>
+      <c r="H70">
+        <v>0.03113202394723691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05198048087307807</v>
+        <v>0.06979159893267507</v>
       </c>
       <c r="C71">
-        <v>0.05005518055179807</v>
+        <v>0.1241455664109729</v>
       </c>
       <c r="D71">
-        <v>-0.291597469645516</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2785809388309201</v>
+      </c>
+      <c r="E71">
+        <v>0.04826367777448276</v>
+      </c>
+      <c r="F71">
+        <v>0.03919252993442953</v>
+      </c>
+      <c r="G71">
+        <v>0.0007174102426633245</v>
+      </c>
+      <c r="H71">
+        <v>-0.01477899274086514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1423743104360257</v>
+        <v>0.1442284574306858</v>
       </c>
       <c r="C72">
-        <v>0.06287571784170297</v>
+        <v>0.03320251060404153</v>
       </c>
       <c r="D72">
-        <v>-0.0128564691713691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0071003699812137</v>
+      </c>
+      <c r="E72">
+        <v>-0.04774740624854105</v>
+      </c>
+      <c r="F72">
+        <v>-0.1609700404203991</v>
+      </c>
+      <c r="G72">
+        <v>0.1085676439752244</v>
+      </c>
+      <c r="H72">
+        <v>0.01546307762476146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2874373057253919</v>
+        <v>0.2880573277026043</v>
       </c>
       <c r="C73">
-        <v>0.09168215623219238</v>
+        <v>0.00949308930410186</v>
       </c>
       <c r="D73">
-        <v>0.03844996690956762</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09617778781913115</v>
+      </c>
+      <c r="E73">
+        <v>-0.2586394098409558</v>
+      </c>
+      <c r="F73">
+        <v>0.07022310120778745</v>
+      </c>
+      <c r="G73">
+        <v>-0.2818983909524667</v>
+      </c>
+      <c r="H73">
+        <v>0.3970470246637953</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08388124531497876</v>
+        <v>0.09251259901480111</v>
       </c>
       <c r="C74">
-        <v>0.0774096787276351</v>
+        <v>0.05193406928556205</v>
       </c>
       <c r="D74">
-        <v>0.003336620670623025</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04457891498030914</v>
+      </c>
+      <c r="E74">
+        <v>-0.005176145088843817</v>
+      </c>
+      <c r="F74">
+        <v>-0.0006729460442727403</v>
+      </c>
+      <c r="G74">
+        <v>-0.02015797055556407</v>
+      </c>
+      <c r="H74">
+        <v>-0.1366663088562445</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1003155817601562</v>
+        <v>0.1020410529147611</v>
       </c>
       <c r="C75">
-        <v>0.04525066049448639</v>
+        <v>0.01563102696757247</v>
       </c>
       <c r="D75">
-        <v>0.01107880992267508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0270629504407619</v>
+      </c>
+      <c r="E75">
+        <v>-0.0008705957786522625</v>
+      </c>
+      <c r="F75">
+        <v>0.0005251355464384956</v>
+      </c>
+      <c r="G75">
+        <v>8.48621880470392e-05</v>
+      </c>
+      <c r="H75">
+        <v>-0.1025626594859627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1320132849837134</v>
+        <v>0.1416761994333381</v>
       </c>
       <c r="C76">
-        <v>0.07417157082531718</v>
+        <v>0.04088447089123851</v>
       </c>
       <c r="D76">
-        <v>0.02563720840497495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05798397501409458</v>
+      </c>
+      <c r="E76">
+        <v>0.01081934590389133</v>
+      </c>
+      <c r="F76">
+        <v>0.03051687140163072</v>
+      </c>
+      <c r="G76">
+        <v>0.03240143637722186</v>
+      </c>
+      <c r="H76">
+        <v>-0.2316305891739838</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1187395348907351</v>
+        <v>0.101532187548585</v>
       </c>
       <c r="C77">
-        <v>0.03233006533624674</v>
+        <v>-0.009503102947905219</v>
       </c>
       <c r="D77">
-        <v>0.09260423936717332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04563340767301646</v>
+      </c>
+      <c r="E77">
+        <v>0.03689993360419748</v>
+      </c>
+      <c r="F77">
+        <v>0.07408538868086174</v>
+      </c>
+      <c r="G77">
+        <v>0.7818427776670501</v>
+      </c>
+      <c r="H77">
+        <v>0.3759269518155205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1085333099557553</v>
+        <v>0.1533046403736617</v>
       </c>
       <c r="C78">
-        <v>0.04094771038375378</v>
+        <v>0.02912594609013653</v>
       </c>
       <c r="D78">
-        <v>0.08779188424216733</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0805066524377835</v>
+      </c>
+      <c r="E78">
+        <v>0.05809209410739252</v>
+      </c>
+      <c r="F78">
+        <v>0.05471855019795369</v>
+      </c>
+      <c r="G78">
+        <v>0.03580636747660998</v>
+      </c>
+      <c r="H78">
+        <v>0.08020926510304031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1447079007369828</v>
+        <v>0.145999200567406</v>
       </c>
       <c r="C79">
-        <v>0.07125539682120383</v>
+        <v>0.03069242191035486</v>
       </c>
       <c r="D79">
-        <v>0.0222208664746138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04846014076275396</v>
+      </c>
+      <c r="E79">
+        <v>-0.01488091889102276</v>
+      </c>
+      <c r="F79">
+        <v>0.01551186870171536</v>
+      </c>
+      <c r="G79">
+        <v>0.03295680036939785</v>
+      </c>
+      <c r="H79">
+        <v>-0.1687494258499192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04131397114123805</v>
+        <v>0.04234301531480764</v>
       </c>
       <c r="C80">
-        <v>0.01591883805451376</v>
+        <v>0.007033519923955378</v>
       </c>
       <c r="D80">
-        <v>0.02886973855649351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01300450090278146</v>
+      </c>
+      <c r="E80">
+        <v>-0.03976008764173106</v>
+      </c>
+      <c r="F80">
+        <v>0.005736045242889018</v>
+      </c>
+      <c r="G80">
+        <v>-0.01263355651822794</v>
+      </c>
+      <c r="H80">
+        <v>-0.03211872753969697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1224453987716318</v>
+        <v>0.1238675446041974</v>
       </c>
       <c r="C81">
-        <v>0.0619702773571752</v>
+        <v>0.03016665524176304</v>
       </c>
       <c r="D81">
-        <v>0.02811471311956737</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03457044681797349</v>
+      </c>
+      <c r="E81">
+        <v>0.006404276679043377</v>
+      </c>
+      <c r="F81">
+        <v>0.01748442423273095</v>
+      </c>
+      <c r="G81">
+        <v>0.006243557609556741</v>
+      </c>
+      <c r="H81">
+        <v>-0.147685013604293</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1340317646814416</v>
+        <v>0.1314058612039552</v>
       </c>
       <c r="C82">
-        <v>0.06870926238007434</v>
+        <v>0.03446930390453291</v>
       </c>
       <c r="D82">
-        <v>0.001599562372203261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03959881486971534</v>
+      </c>
+      <c r="E82">
+        <v>-0.02347981097403488</v>
+      </c>
+      <c r="F82">
+        <v>0.03958890440958222</v>
+      </c>
+      <c r="G82">
+        <v>0.02019047552758258</v>
+      </c>
+      <c r="H82">
+        <v>-0.2286179201758697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06033700930619069</v>
+        <v>0.07749761556828684</v>
       </c>
       <c r="C83">
-        <v>-0.02836553060746986</v>
+        <v>-0.03757383024701433</v>
       </c>
       <c r="D83">
-        <v>0.0230098109216445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01570303365687552</v>
+      </c>
+      <c r="E83">
+        <v>0.01500612874665908</v>
+      </c>
+      <c r="F83">
+        <v>0.03268894806241639</v>
+      </c>
+      <c r="G83">
+        <v>-0.04652204648555042</v>
+      </c>
+      <c r="H83">
+        <v>0.03610491638089883</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02578246543623994</v>
+        <v>0.03131524046287799</v>
       </c>
       <c r="C84">
-        <v>0.02313780795478611</v>
+        <v>0.008258759091440072</v>
       </c>
       <c r="D84">
-        <v>0.04175868177392816</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04241228550813292</v>
+      </c>
+      <c r="E84">
+        <v>0.01825022261908404</v>
+      </c>
+      <c r="F84">
+        <v>-0.03429384938007147</v>
+      </c>
+      <c r="G84">
+        <v>-0.0262140189758699</v>
+      </c>
+      <c r="H84">
+        <v>-0.02634570048624794</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1184729293454266</v>
+        <v>0.121939739604735</v>
       </c>
       <c r="C85">
-        <v>0.03917945227589546</v>
+        <v>0.009353538157046473</v>
       </c>
       <c r="D85">
-        <v>0.05044361338994648</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04212202555376348</v>
+      </c>
+      <c r="E85">
+        <v>0.01848602205211742</v>
+      </c>
+      <c r="F85">
+        <v>0.03258986599943529</v>
+      </c>
+      <c r="G85">
+        <v>0.00241080729384469</v>
+      </c>
+      <c r="H85">
+        <v>-0.1465965199569471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0533293405529926</v>
+        <v>0.056164489551485</v>
       </c>
       <c r="C86">
-        <v>0.02477662446469316</v>
+        <v>0.00704446161647581</v>
       </c>
       <c r="D86">
-        <v>0.06491858652581879</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03400311087957492</v>
+      </c>
+      <c r="E86">
+        <v>0.0410503450935403</v>
+      </c>
+      <c r="F86">
+        <v>0.02562224759741934</v>
+      </c>
+      <c r="G86">
+        <v>-0.03720276531565601</v>
+      </c>
+      <c r="H86">
+        <v>0.05001559419854541</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.124507248190117</v>
+        <v>0.1262261283102005</v>
       </c>
       <c r="C87">
-        <v>0.07123769825154372</v>
+        <v>0.02577235178191834</v>
       </c>
       <c r="D87">
-        <v>0.07130386932077401</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07225901004643567</v>
+      </c>
+      <c r="E87">
+        <v>0.01925693937110323</v>
+      </c>
+      <c r="F87">
+        <v>0.02406658655329452</v>
+      </c>
+      <c r="G87">
+        <v>0.1468903264992163</v>
+      </c>
+      <c r="H87">
+        <v>0.08122740888693811</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05445356514136317</v>
+        <v>0.06274702870139291</v>
       </c>
       <c r="C88">
-        <v>0.03243779066162493</v>
+        <v>0.01614432293234109</v>
       </c>
       <c r="D88">
-        <v>0.02668549704215268</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04297669843285593</v>
+      </c>
+      <c r="E88">
+        <v>0.003051597193986908</v>
+      </c>
+      <c r="F88">
+        <v>0.02051716877702511</v>
+      </c>
+      <c r="G88">
+        <v>0.01216155033972757</v>
+      </c>
+      <c r="H88">
+        <v>-0.04271112715151993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08206936073294696</v>
+        <v>0.1069658295717046</v>
       </c>
       <c r="C89">
-        <v>0.07225287885291223</v>
+        <v>0.1572134128324397</v>
       </c>
       <c r="D89">
-        <v>-0.3183250065031569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3259227280729177</v>
+      </c>
+      <c r="E89">
+        <v>0.06185503674034207</v>
+      </c>
+      <c r="F89">
+        <v>0.06918132770518781</v>
+      </c>
+      <c r="G89">
+        <v>-0.02219831782651763</v>
+      </c>
+      <c r="H89">
+        <v>-0.01276276289730154</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.06244403524641456</v>
+        <v>0.08230765225483294</v>
       </c>
       <c r="C90">
-        <v>0.05680985543939169</v>
+        <v>0.1251545793525291</v>
       </c>
       <c r="D90">
-        <v>-0.2805728853995953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2696929002875891</v>
+      </c>
+      <c r="E90">
+        <v>0.05608189564230144</v>
+      </c>
+      <c r="F90">
+        <v>0.02914552259771978</v>
+      </c>
+      <c r="G90">
+        <v>0.02864083520972682</v>
+      </c>
+      <c r="H90">
+        <v>0.02264944730322431</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08968836739516986</v>
+        <v>0.08976581258684216</v>
       </c>
       <c r="C91">
-        <v>0.04888158657085815</v>
+        <v>0.02006371678143888</v>
       </c>
       <c r="D91">
-        <v>0.01450542736079704</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03581718429373892</v>
+      </c>
+      <c r="E91">
+        <v>0.005566052318725343</v>
+      </c>
+      <c r="F91">
+        <v>0.003889433048995545</v>
+      </c>
+      <c r="G91">
+        <v>-0.01315875215848591</v>
+      </c>
+      <c r="H91">
+        <v>-0.09401636489448703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.06709629674289055</v>
+        <v>0.08441296135100149</v>
       </c>
       <c r="C92">
-        <v>0.06862184889973097</v>
+        <v>0.1470273498625865</v>
       </c>
       <c r="D92">
-        <v>-0.3327444826780226</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3152415112204497</v>
+      </c>
+      <c r="E92">
+        <v>0.05272663528944324</v>
+      </c>
+      <c r="F92">
+        <v>0.0356117607373587</v>
+      </c>
+      <c r="G92">
+        <v>0.00569236927818191</v>
+      </c>
+      <c r="H92">
+        <v>-0.01759013094806947</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.05832315941634623</v>
+        <v>0.08074927429015609</v>
       </c>
       <c r="C93">
-        <v>0.06331507002699149</v>
+        <v>0.1395682380172812</v>
       </c>
       <c r="D93">
-        <v>-0.2985827000580405</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2835929105057977</v>
+      </c>
+      <c r="E93">
+        <v>0.02922347289734579</v>
+      </c>
+      <c r="F93">
+        <v>0.02961666086868832</v>
+      </c>
+      <c r="G93">
+        <v>0.01635805535658979</v>
+      </c>
+      <c r="H93">
+        <v>-0.003192200735327327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1343092143097751</v>
+        <v>0.1285867816520306</v>
       </c>
       <c r="C94">
-        <v>0.04208325462741723</v>
+        <v>0.002092969933675682</v>
       </c>
       <c r="D94">
-        <v>0.03974711704117041</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04814851043605418</v>
+      </c>
+      <c r="E94">
+        <v>-0.01930548928177838</v>
+      </c>
+      <c r="F94">
+        <v>0.01785148546672332</v>
+      </c>
+      <c r="G94">
+        <v>-0.02804391118605256</v>
+      </c>
+      <c r="H94">
+        <v>-0.1089904993835723</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1199165514699585</v>
+        <v>0.1287315173609335</v>
       </c>
       <c r="C95">
-        <v>0.02622329822327249</v>
+        <v>-0.005986031908049601</v>
       </c>
       <c r="D95">
-        <v>0.05747749526118381</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05952394686357585</v>
+      </c>
+      <c r="E95">
+        <v>0.003559160666765772</v>
+      </c>
+      <c r="F95">
+        <v>0.05438556421118704</v>
+      </c>
+      <c r="G95">
+        <v>0.03469917708395848</v>
+      </c>
+      <c r="H95">
+        <v>0.09373354849036368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2195163319232708</v>
+        <v>0.1943857039238242</v>
       </c>
       <c r="C97">
-        <v>0.04020681125684739</v>
+        <v>-0.009353688042478544</v>
       </c>
       <c r="D97">
-        <v>-0.1061774237282744</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06244511557018971</v>
+      </c>
+      <c r="E97">
+        <v>-0.06303300330162069</v>
+      </c>
+      <c r="F97">
+        <v>-0.9376460533108814</v>
+      </c>
+      <c r="G97">
+        <v>0.05218989628065646</v>
+      </c>
+      <c r="H97">
+        <v>0.03265561383840525</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2406170096361676</v>
+        <v>0.272713307729485</v>
       </c>
       <c r="C98">
-        <v>0.05411368857048204</v>
+        <v>0.01121473236906789</v>
       </c>
       <c r="D98">
-        <v>0.01377607454021785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04300246371303756</v>
+      </c>
+      <c r="E98">
+        <v>-0.2047345071806306</v>
+      </c>
+      <c r="F98">
+        <v>0.04748484170147321</v>
+      </c>
+      <c r="G98">
+        <v>-0.3245000617975379</v>
+      </c>
+      <c r="H98">
+        <v>0.1433828793665263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4065132979901193</v>
+        <v>0.262751968035733</v>
       </c>
       <c r="C99">
-        <v>-0.8950507873257143</v>
+        <v>-0.8928533733842179</v>
       </c>
       <c r="D99">
-        <v>-0.06189277602574144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.3130378228988056</v>
+      </c>
+      <c r="E99">
+        <v>0.06986927247630512</v>
+      </c>
+      <c r="F99">
+        <v>0.07467506205416195</v>
+      </c>
+      <c r="G99">
+        <v>0.01779433884397971</v>
+      </c>
+      <c r="H99">
+        <v>-0.069769365831504</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04437700504561668</v>
+        <v>0.04730156055598882</v>
       </c>
       <c r="C101">
-        <v>0.03539894973504851</v>
+        <v>0.02481820634050893</v>
       </c>
       <c r="D101">
-        <v>0.006268329170062196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01739836534718543</v>
+      </c>
+      <c r="E101">
+        <v>0.05486179627303628</v>
+      </c>
+      <c r="F101">
+        <v>0.0134348227580214</v>
+      </c>
+      <c r="G101">
+        <v>0.01093815462496672</v>
+      </c>
+      <c r="H101">
+        <v>-0.0758246537143514</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
